--- a/downloaded_files/EECS316_Tutorial-35860.xlsx
+++ b/downloaded_files/EECS316_Tutorial-35860.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -148,6 +148,15 @@
   </x:si>
   <x:si>
     <x:t>Karim mohamed sayed ahmed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210375</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ماجد امجد رسمي وديع</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Maged Amgad Rasmy Wadi</x:t>
   </x:si>
   <x:si>
     <x:t>1210388</x:t>
@@ -416,7 +425,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E32" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -716,7 +725,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T31"/>
+  <x:dimension ref="A1:T32"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1223,7 +1232,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.6649520833</x:v>
+        <x:v>45923.3567042824</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1255,7 +1264,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45909.9007764699</x:v>
+        <x:v>45906.6649520833</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1287,7 +1296,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.4141048611</x:v>
+        <x:v>45909.9007764699</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1319,7 +1328,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45912.7920027778</x:v>
+        <x:v>45906.4141048611</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1351,7 +1360,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.4149950579</x:v>
+        <x:v>45912.7920027778</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1383,7 +1392,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.4145865741</x:v>
+        <x:v>45906.4149950579</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1415,7 +1424,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.4143641551</x:v>
+        <x:v>45906.4145865741</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1447,7 +1456,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.4145188657</x:v>
+        <x:v>45906.4143641551</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1479,7 +1488,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45912.7826103356</x:v>
+        <x:v>45906.4145188657</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1511,7 +1520,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.4142854167</x:v>
+        <x:v>45912.7826103356</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1543,7 +1552,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.4144648148</x:v>
+        <x:v>45906.4142854167</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1575,7 +1584,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.414388044</x:v>
+        <x:v>45906.4144648148</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1607,7 +1616,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.4182658912</x:v>
+        <x:v>45906.414388044</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1639,7 +1648,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45909.4408829514</x:v>
+        <x:v>45906.4182658912</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1671,7 +1680,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.6747702894</x:v>
+        <x:v>45909.4408829514</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1703,7 +1712,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45909.4154523958</x:v>
+        <x:v>45906.6747702894</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1735,7 +1744,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45906.6648181713</x:v>
+        <x:v>45909.4154523958</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1752,6 +1761,38 @@
       <x:c r="R31" s="2" t="s"/>
       <x:c r="S31" s="2" t="s"/>
       <x:c r="T31" s="2" t="s"/>
+    </x:row>
+    <x:row r="32" spans="1:20">
+      <x:c r="A32" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B32" s="2" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="C32" s="2" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="D32" s="2" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="E32" s="3">
+        <x:v>45906.6648181713</x:v>
+      </x:c>
+      <x:c r="F32" s="2" t="s"/>
+      <x:c r="G32" s="2" t="s"/>
+      <x:c r="H32" s="2" t="s"/>
+      <x:c r="I32" s="2" t="s"/>
+      <x:c r="J32" s="2" t="s"/>
+      <x:c r="K32" s="2" t="s"/>
+      <x:c r="L32" s="2" t="s"/>
+      <x:c r="M32" s="2" t="s"/>
+      <x:c r="N32" s="2" t="s"/>
+      <x:c r="O32" s="2" t="s"/>
+      <x:c r="P32" s="2" t="s"/>
+      <x:c r="Q32" s="2" t="s"/>
+      <x:c r="R32" s="2" t="s"/>
+      <x:c r="S32" s="2" t="s"/>
+      <x:c r="T32" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS316_Tutorial-35860.xlsx
+++ b/downloaded_files/EECS316_Tutorial-35860.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -69,6 +69,15 @@
     <x:t>Anas Alaa Mohamed  Ibrahim</x:t>
   </x:si>
   <x:si>
+    <x:t>1210002</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ايه محمد عبد التواب السيد محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Aya Mohamed Abdeltawab Alsayed</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210206</x:t>
   </x:si>
   <x:si>
@@ -96,6 +105,15 @@
     <x:t>Khaled Ali Fathi Ibrahim</x:t>
   </x:si>
   <x:si>
+    <x:t>1210247</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عائشة توفيق محمود توفيق عصمت</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Aisha Tawfik Mahmoud Tawfik Esmat</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210260</x:t>
   </x:si>
   <x:si>
@@ -132,6 +150,15 @@
     <x:t>Amr Magdy Mohamed Abo Elsoud</x:t>
   </x:si>
   <x:si>
+    <x:t>1210275</x:t>
+  </x:si>
+  <x:si>
+    <x:t>فاطمه جمال زين العابدين محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fatma Gamal Zeinelabdeen</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210280</x:t>
   </x:si>
   <x:si>
@@ -247,6 +274,15 @@
   </x:si>
   <x:si>
     <x:t>Menna Salah Mohamed Alawadly</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210312</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مهاب ياسر السيد سالم البحراوى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohab Yasser Alsayed Salem Albahrawy</x:t>
   </x:si>
   <x:si>
     <x:t>1210313</x:t>
@@ -425,7 +461,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E32" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -725,7 +761,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T32"/>
+  <x:dimension ref="A1:T36"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -944,7 +980,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45906.4146423958</x:v>
+        <x:v>45927.8313489583</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -976,7 +1012,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45909.4150008912</x:v>
+        <x:v>45906.4146423958</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1008,7 +1044,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45906.4144362268</x:v>
+        <x:v>45909.4150008912</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1040,7 +1076,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.7460854514</x:v>
+        <x:v>45906.4144362268</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1072,7 +1108,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.8979083333</x:v>
+        <x:v>45927.9016206366</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1104,7 +1140,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.6652144329</x:v>
+        <x:v>45906.7460854514</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1136,7 +1172,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.4319358796</x:v>
+        <x:v>45906.8979083333</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1168,7 +1204,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.4491235764</x:v>
+        <x:v>45906.6652144329</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1200,7 +1236,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45913.7379800926</x:v>
+        <x:v>45906.4319358796</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1232,7 +1268,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45923.3567042824</x:v>
+        <x:v>45927.9019570255</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1264,7 +1300,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.6649520833</x:v>
+        <x:v>45906.4491235764</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1296,7 +1332,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45909.9007764699</x:v>
+        <x:v>45913.7379800926</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1328,7 +1364,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.4141048611</x:v>
+        <x:v>45923.3567042824</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1360,7 +1396,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45912.7920027778</x:v>
+        <x:v>45906.6649520833</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1392,7 +1428,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.4149950579</x:v>
+        <x:v>45909.9007764699</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1424,7 +1460,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.4145865741</x:v>
+        <x:v>45906.4141048611</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1456,7 +1492,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.4143641551</x:v>
+        <x:v>45912.7920027778</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1488,7 +1524,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.4145188657</x:v>
+        <x:v>45906.4149950579</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1520,7 +1556,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45912.7826103356</x:v>
+        <x:v>45906.4145865741</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1552,7 +1588,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.4142854167</x:v>
+        <x:v>45906.4143641551</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1584,7 +1620,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.4144648148</x:v>
+        <x:v>45906.4145188657</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1616,7 +1652,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.414388044</x:v>
+        <x:v>45912.7826103356</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1648,7 +1684,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.4182658912</x:v>
+        <x:v>45906.4142854167</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1680,7 +1716,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45909.4408829514</x:v>
+        <x:v>45927.9012187847</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1712,7 +1748,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.6747702894</x:v>
+        <x:v>45906.4144648148</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1744,7 +1780,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45909.4154523958</x:v>
+        <x:v>45906.414388044</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1776,7 +1812,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45906.6648181713</x:v>
+        <x:v>45906.4182658912</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1794,6 +1830,134 @@
       <x:c r="S32" s="2" t="s"/>
       <x:c r="T32" s="2" t="s"/>
     </x:row>
+    <x:row r="33" spans="1:20">
+      <x:c r="A33" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B33" s="2" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="C33" s="2" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="D33" s="2" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="E33" s="3">
+        <x:v>45909.4408829514</x:v>
+      </x:c>
+      <x:c r="F33" s="2" t="s"/>
+      <x:c r="G33" s="2" t="s"/>
+      <x:c r="H33" s="2" t="s"/>
+      <x:c r="I33" s="2" t="s"/>
+      <x:c r="J33" s="2" t="s"/>
+      <x:c r="K33" s="2" t="s"/>
+      <x:c r="L33" s="2" t="s"/>
+      <x:c r="M33" s="2" t="s"/>
+      <x:c r="N33" s="2" t="s"/>
+      <x:c r="O33" s="2" t="s"/>
+      <x:c r="P33" s="2" t="s"/>
+      <x:c r="Q33" s="2" t="s"/>
+      <x:c r="R33" s="2" t="s"/>
+      <x:c r="S33" s="2" t="s"/>
+      <x:c r="T33" s="2" t="s"/>
+    </x:row>
+    <x:row r="34" spans="1:20">
+      <x:c r="A34" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B34" s="2" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="C34" s="2" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="D34" s="2" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="E34" s="3">
+        <x:v>45906.6747702894</x:v>
+      </x:c>
+      <x:c r="F34" s="2" t="s"/>
+      <x:c r="G34" s="2" t="s"/>
+      <x:c r="H34" s="2" t="s"/>
+      <x:c r="I34" s="2" t="s"/>
+      <x:c r="J34" s="2" t="s"/>
+      <x:c r="K34" s="2" t="s"/>
+      <x:c r="L34" s="2" t="s"/>
+      <x:c r="M34" s="2" t="s"/>
+      <x:c r="N34" s="2" t="s"/>
+      <x:c r="O34" s="2" t="s"/>
+      <x:c r="P34" s="2" t="s"/>
+      <x:c r="Q34" s="2" t="s"/>
+      <x:c r="R34" s="2" t="s"/>
+      <x:c r="S34" s="2" t="s"/>
+      <x:c r="T34" s="2" t="s"/>
+    </x:row>
+    <x:row r="35" spans="1:20">
+      <x:c r="A35" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B35" s="2" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="C35" s="2" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="D35" s="2" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="E35" s="3">
+        <x:v>45909.4154523958</x:v>
+      </x:c>
+      <x:c r="F35" s="2" t="s"/>
+      <x:c r="G35" s="2" t="s"/>
+      <x:c r="H35" s="2" t="s"/>
+      <x:c r="I35" s="2" t="s"/>
+      <x:c r="J35" s="2" t="s"/>
+      <x:c r="K35" s="2" t="s"/>
+      <x:c r="L35" s="2" t="s"/>
+      <x:c r="M35" s="2" t="s"/>
+      <x:c r="N35" s="2" t="s"/>
+      <x:c r="O35" s="2" t="s"/>
+      <x:c r="P35" s="2" t="s"/>
+      <x:c r="Q35" s="2" t="s"/>
+      <x:c r="R35" s="2" t="s"/>
+      <x:c r="S35" s="2" t="s"/>
+      <x:c r="T35" s="2" t="s"/>
+    </x:row>
+    <x:row r="36" spans="1:20">
+      <x:c r="A36" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B36" s="2" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="C36" s="2" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="D36" s="2" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="E36" s="3">
+        <x:v>45906.6648181713</x:v>
+      </x:c>
+      <x:c r="F36" s="2" t="s"/>
+      <x:c r="G36" s="2" t="s"/>
+      <x:c r="H36" s="2" t="s"/>
+      <x:c r="I36" s="2" t="s"/>
+      <x:c r="J36" s="2" t="s"/>
+      <x:c r="K36" s="2" t="s"/>
+      <x:c r="L36" s="2" t="s"/>
+      <x:c r="M36" s="2" t="s"/>
+      <x:c r="N36" s="2" t="s"/>
+      <x:c r="O36" s="2" t="s"/>
+      <x:c r="P36" s="2" t="s"/>
+      <x:c r="Q36" s="2" t="s"/>
+      <x:c r="R36" s="2" t="s"/>
+      <x:c r="S36" s="2" t="s"/>
+      <x:c r="T36" s="2" t="s"/>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
@@ -1806,6 +1970,9 @@
     <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Communications-2 (EECS316) Location : [20427]20427-32-الجيزة الرئيسي Time : Tuesday(8:11)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
+  <x:rowBreaks count="1" manualBreakCount="1">
+    <x:brk id="35" max="1048576" man="1"/>
+  </x:rowBreaks>
   <x:tableParts count="1">
     <x:tablePart r:id="rId5"/>
   </x:tableParts>

--- a/downloaded_files/EECS316_Tutorial-35860.xlsx
+++ b/downloaded_files/EECS316_Tutorial-35860.xlsx
@@ -39,7 +39,7 @@
     <x:t>احمد سامح صلاح مصيلحى</x:t>
   </x:si>
   <x:si>
-    <x:t>Ahmed Sameh Salah</x:t>
+    <x:t>Ahmed Sameh Salah Moselhi</x:t>
   </x:si>
   <x:si>
     <x:t>1210044</x:t>
@@ -201,7 +201,7 @@
     <x:t>محمد اشرف محمد كرم الله</x:t>
   </x:si>
   <x:si>
-    <x:t>Mohamed Ashraf Mohamed</x:t>
+    <x:t>Mohamed Ashraf Mohamed Karam Allah</x:t>
   </x:si>
   <x:si>
     <x:t>1210024</x:t>
